--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="H2">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="I2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="J2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>2.749525059317222</v>
+        <v>0.02548623207322222</v>
       </c>
       <c r="R2">
-        <v>24.745725533855</v>
+        <v>0.229376088659</v>
       </c>
       <c r="S2">
-        <v>0.01387917877981041</v>
+        <v>0.0001736316152239777</v>
       </c>
       <c r="T2">
-        <v>0.0138791787798104</v>
+        <v>0.0001736316152239777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="H3">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="I3">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="J3">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>0.008937233158555553</v>
+        <v>0.01381023255077778</v>
       </c>
       <c r="R3">
-        <v>0.080435098427</v>
+        <v>0.124292092957</v>
       </c>
       <c r="S3">
-        <v>4.511377569886374E-05</v>
+        <v>9.408581768859068E-05</v>
       </c>
       <c r="T3">
-        <v>4.511377569886374E-05</v>
+        <v>9.408581768859068E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="H4">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="I4">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="J4">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>0.228676292253111</v>
+        <v>0.4694039485036666</v>
       </c>
       <c r="R4">
-        <v>2.058086630277999</v>
+        <v>4.224635536533</v>
       </c>
       <c r="S4">
-        <v>0.001154322682795714</v>
+        <v>0.003197937048404975</v>
       </c>
       <c r="T4">
-        <v>0.001154322682795714</v>
+        <v>0.003197937048404975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="H5">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="I5">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="J5">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>6.184077610951444</v>
+        <v>9.357986434018555</v>
       </c>
       <c r="R5">
-        <v>55.656698498563</v>
+        <v>84.22187790616699</v>
       </c>
       <c r="S5">
-        <v>0.03121627077366289</v>
+        <v>0.0637537277034331</v>
       </c>
       <c r="T5">
-        <v>0.03121627077366289</v>
+        <v>0.0637537277034331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.9512</v>
       </c>
       <c r="I6">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="J6">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>23.27503393288889</v>
+        <v>0.1396176649777778</v>
       </c>
       <c r="R6">
-        <v>209.475305396</v>
+        <v>1.2565589848</v>
       </c>
       <c r="S6">
-        <v>0.1174887844597195</v>
+        <v>0.0009511818229640258</v>
       </c>
       <c r="T6">
-        <v>0.1174887844597195</v>
+        <v>0.0009511818229640258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.9512</v>
       </c>
       <c r="I7">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="J7">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>0.07565466782222222</v>
@@ -883,10 +883,10 @@
         <v>0.6808920104</v>
       </c>
       <c r="S7">
-        <v>0.0003818931042921792</v>
+        <v>0.0005154171921320476</v>
       </c>
       <c r="T7">
-        <v>0.0003818931042921791</v>
+        <v>0.0005154171921320477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.9512</v>
       </c>
       <c r="I8">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="J8">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>1.935770122844444</v>
+        <v>2.571470079733333</v>
       </c>
       <c r="R8">
-        <v>17.4219311056</v>
+        <v>23.1432307176</v>
       </c>
       <c r="S8">
-        <v>0.009771469265403</v>
+        <v>0.01751881181029283</v>
       </c>
       <c r="T8">
-        <v>0.009771469265402998</v>
+        <v>0.01751881181029283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.9512</v>
       </c>
       <c r="I9">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="J9">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>52.34890140417778</v>
+        <v>51.26454985804445</v>
       </c>
       <c r="R9">
-        <v>471.1401126376</v>
+        <v>461.3809487224</v>
       </c>
       <c r="S9">
-        <v>0.2642491869834694</v>
+        <v>0.3492531406764759</v>
       </c>
       <c r="T9">
-        <v>0.2642491869834694</v>
+        <v>0.3492531406764759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="H10">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="I10">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="J10">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>32.81594448640944</v>
+        <v>0.210271384929</v>
       </c>
       <c r="R10">
-        <v>295.343500377685</v>
+        <v>1.892442464361</v>
       </c>
       <c r="S10">
-        <v>0.1656498306177695</v>
+        <v>0.001432528751041428</v>
       </c>
       <c r="T10">
-        <v>0.1656498306177694</v>
+        <v>0.001432528751041428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="H11">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="I11">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="J11">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>0.1066670573521111</v>
+        <v>0.113939821167</v>
       </c>
       <c r="R11">
-        <v>0.9600035161689999</v>
+        <v>1.025458390503</v>
       </c>
       <c r="S11">
-        <v>0.000538438867428935</v>
+        <v>0.0007762448027122643</v>
       </c>
       <c r="T11">
-        <v>0.0005384388674289349</v>
+        <v>0.0007762448027122644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="H12">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="I12">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="J12">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>2.729281730496222</v>
+        <v>3.872766208023</v>
       </c>
       <c r="R12">
-        <v>24.56353557446599</v>
+        <v>34.854895872207</v>
       </c>
       <c r="S12">
-        <v>0.01377699357555011</v>
+        <v>0.0263842316962335</v>
       </c>
       <c r="T12">
-        <v>0.0137769935755501</v>
+        <v>0.0263842316962335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="H13">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="I13">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="J13">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>73.80778250881789</v>
+        <v>77.20704896567699</v>
       </c>
       <c r="R13">
-        <v>664.270042579361</v>
+        <v>694.8634406910929</v>
       </c>
       <c r="S13">
-        <v>0.3725703118471049</v>
+        <v>0.5259931942890906</v>
       </c>
       <c r="T13">
-        <v>0.3725703118471049</v>
+        <v>0.5259931942890907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="H14">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="I14">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="J14">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>0.5510469964505555</v>
+        <v>0.003774767378888889</v>
       </c>
       <c r="R14">
-        <v>4.959422968055</v>
+        <v>0.03397290641</v>
       </c>
       <c r="S14">
-        <v>0.002781600318170596</v>
+        <v>2.57165890669218E-05</v>
       </c>
       <c r="T14">
-        <v>0.002781600318170595</v>
+        <v>2.57165890669218E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="H15">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="I15">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="J15">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.001791158611888889</v>
+        <v>0.002045434381111111</v>
       </c>
       <c r="R15">
-        <v>0.016120427507</v>
+        <v>0.01840890943</v>
       </c>
       <c r="S15">
-        <v>9.04149264366998E-06</v>
+        <v>1.393505616705614E-05</v>
       </c>
       <c r="T15">
-        <v>9.04149264366998E-06</v>
+        <v>1.393505616705614E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="H16">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="I16">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="J16">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>0.04583023659977777</v>
+        <v>0.06952344729666667</v>
       </c>
       <c r="R16">
-        <v>0.4124721293979999</v>
+        <v>0.62571102567</v>
       </c>
       <c r="S16">
-        <v>0.0002313439716193321</v>
+        <v>0.0004736466502925131</v>
       </c>
       <c r="T16">
-        <v>0.0002313439716193321</v>
+        <v>0.0004736466502925132</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="H17">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="I17">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="J17">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>1.239384009898111</v>
+        <v>1.386011938592222</v>
       </c>
       <c r="R17">
-        <v>11.154456089083</v>
+        <v>12.47410744733</v>
       </c>
       <c r="S17">
-        <v>0.006256219484861071</v>
+        <v>0.00944256847878016</v>
       </c>
       <c r="T17">
-        <v>0.006256219484861071</v>
+        <v>0.009442568478780161</v>
       </c>
     </row>
   </sheetData>
